--- a/biology/Zoologie/Dendropsophus_joannae/Dendropsophus_joannae.xlsx
+++ b/biology/Zoologie/Dendropsophus_joannae/Dendropsophus_joannae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendropsophus joannae est une espèce d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendropsophus joannae est une espèce d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans le département de Pando en Bolivie ;
 dans la région de Madre de Dios au Pérou ;
 dans l'État d'Acre au Brésil.</t>
@@ -544,9 +558,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jo Ann Oxley-Foster, pour son support du programme BIOPAT[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jo Ann Oxley-Foster, pour son support du programme BIOPAT.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Köhler &amp; Lötters, 2001 : A New Species of Minute Hyla from the Southwestern Amazon Basin (Amphibia, Anura, Hylidae). Studies on Neotropical Fauna and Environment, vol. 36, p. 105-112.</t>
         </is>
